--- a/static/template.xlsx
+++ b/static/template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\hdd-admin\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -55,7 +55,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name</t>
+    <t>张三</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,7 +444,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
